--- a/analysis/participant_extractedmetrics/Participant150.xlsx
+++ b/analysis/participant_extractedmetrics/Participant150.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="81">
   <si>
     <t/>
   </si>
@@ -174,6 +174,9 @@
     <t>pre-gemini</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>arg1</t>
   </si>
   <si>
@@ -259,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -270,6 +273,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,12 +294,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2842,7 +2859,1041 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>440.0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>168.0</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4">
+        <v>400.42</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1318.28</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2285.88</v>
+      </c>
+      <c r="L34" s="4">
+        <v>14048.84</v>
+      </c>
+      <c r="M34" s="4">
+        <v>2836.44</v>
+      </c>
+      <c r="N34" s="4">
+        <v>2285.88</v>
+      </c>
+      <c r="O34" s="4">
+        <v>909.25</v>
+      </c>
+      <c r="P34" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>583.95</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1201.25</v>
+      </c>
+      <c r="S34" s="4">
+        <v>106065.3</v>
+      </c>
+      <c r="T34" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="U34" s="4">
+        <v>5180.86</v>
+      </c>
+      <c r="V34" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X34" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>2085.63</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>1092.68</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>66310.95</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="AR34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4.56</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="S35" s="4">
+        <v>34.44</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="U35" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>21.53</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AR35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4">
+        <v>400.42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="J36" s="4">
+        <v>439.43</v>
+      </c>
+      <c r="K36" s="4">
+        <v>571.47</v>
+      </c>
+      <c r="L36" s="4">
+        <v>326.72</v>
+      </c>
+      <c r="M36" s="4">
+        <v>405.21</v>
+      </c>
+      <c r="N36" s="4">
+        <v>571.47</v>
+      </c>
+      <c r="O36" s="4">
+        <v>454.63</v>
+      </c>
+      <c r="P36" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>194.65</v>
+      </c>
+      <c r="R36" s="4">
+        <v>400.42</v>
+      </c>
+      <c r="S36" s="4">
+        <v>241.06</v>
+      </c>
+      <c r="T36" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="U36" s="4">
+        <v>272.68</v>
+      </c>
+      <c r="V36" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X36" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>695.21</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>364.23</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>394.71</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4">
+        <v>400.42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="J37" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1184.68</v>
+      </c>
+      <c r="L37" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1184.68</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1184.68</v>
+      </c>
+      <c r="O37" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="P37" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="R37" s="4">
+        <v>367.05</v>
+      </c>
+      <c r="S37" s="4">
+        <v>82.2</v>
+      </c>
+      <c r="T37" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="U37" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V37" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X37" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>1184.68</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>200.12</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>751.0</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:B31"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2865,52 +3916,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
@@ -2975,7 +4026,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>100.0</v>
@@ -3399,52 +4450,52 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>0</v>
@@ -3861,7 +4912,677 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>188.0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4">
+        <v>517.15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6857.14</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2418.93</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1818.45</v>
+      </c>
+      <c r="G27" s="4">
+        <v>47517.33</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="4">
+        <v>517.15</v>
+      </c>
+      <c r="K27" s="4">
+        <v>266.92</v>
+      </c>
+      <c r="L27" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1084.29</v>
+      </c>
+      <c r="N27" s="4">
+        <v>100.53</v>
+      </c>
+      <c r="O27" s="4">
+        <v>30410.85</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>500.55</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="G28" s="4">
+        <v>34.58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="O28" s="4">
+        <v>22.13</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4">
+        <v>172.38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <v>285.71</v>
+      </c>
+      <c r="E29" s="4">
+        <v>302.37</v>
+      </c>
+      <c r="F29" s="4">
+        <v>454.61</v>
+      </c>
+      <c r="G29" s="4">
+        <v>252.75</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="4">
+        <v>172.38</v>
+      </c>
+      <c r="K29" s="4">
+        <v>266.92</v>
+      </c>
+      <c r="L29" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="M29" s="4">
+        <v>361.43</v>
+      </c>
+      <c r="N29" s="4">
+        <v>100.53</v>
+      </c>
+      <c r="O29" s="4">
+        <v>467.86</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>500.55</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="4">
+        <v>183.49</v>
+      </c>
+      <c r="E30" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="F30" s="4">
+        <v>183.49</v>
+      </c>
+      <c r="G30" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="K30" s="4">
+        <v>266.92</v>
+      </c>
+      <c r="L30" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="M30" s="4">
+        <v>250.15</v>
+      </c>
+      <c r="N30" s="4">
+        <v>100.53</v>
+      </c>
+      <c r="O30" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>500.55</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3881,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3890,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -3908,59 +5629,75 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -4045,6 +5782,22 @@
         <v>0</v>
       </c>
       <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -4131,6 +5884,22 @@
       <c r="AB3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -4217,6 +5986,22 @@
       <c r="AB4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -4303,6 +6088,22 @@
       <c r="AB5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -4389,6 +6190,22 @@
       <c r="AB6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -4475,6 +6292,22 @@
       <c r="AB7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -4561,6 +6394,22 @@
       <c r="AB8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -4572,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -4581,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -4599,59 +6448,75 @@
         <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -4736,6 +6601,22 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -4822,6 +6703,22 @@
       <c r="AB15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -4908,6 +6805,22 @@
       <c r="AB16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -4994,6 +6907,22 @@
       <c r="AB17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -5080,6 +7009,22 @@
       <c r="AB18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -5166,6 +7111,22 @@
       <c r="AB19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -5252,8 +7213,820 @@
       <c r="AB20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>176.0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>165.0</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="4">
+        <v>266.99</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="4">
+        <v>10744.92</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4872.01</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1584.89</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1501.61</v>
+      </c>
+      <c r="K27" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2102.43</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1584.89</v>
+      </c>
+      <c r="N27" s="4">
+        <v>917.49</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1835.5</v>
+      </c>
+      <c r="P27" s="4">
+        <v>40574.34</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W27" s="4">
+        <v>1251.34</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>63115.37</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>266.99</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6.36</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="P28" s="4">
+        <v>24.02</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>37.36</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="4">
+        <v>266.99</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="4">
+        <v>370.51</v>
+      </c>
+      <c r="H29" s="4">
+        <v>348.0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>528.3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>750.81</v>
+      </c>
+      <c r="K29" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="L29" s="4">
+        <v>420.49</v>
+      </c>
+      <c r="M29" s="4">
+        <v>528.3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>917.49</v>
+      </c>
+      <c r="O29" s="4">
+        <v>458.87</v>
+      </c>
+      <c r="P29" s="4">
+        <v>230.54</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" s="4">
+        <v>625.67</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>382.52</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>266.99</v>
+      </c>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="4">
+        <v>266.99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="H30" s="4">
+        <v>150.19</v>
+      </c>
+      <c r="I30" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="J30" s="4">
+        <v>767.5</v>
+      </c>
+      <c r="K30" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="L30" s="4">
+        <v>150.19</v>
+      </c>
+      <c r="M30" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="N30" s="4">
+        <v>917.49</v>
+      </c>
+      <c r="O30" s="4">
+        <v>150.19</v>
+      </c>
+      <c r="P30" s="4">
+        <v>133.5</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1117.8</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>66.77</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>266.99</v>
+      </c>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>